--- a/published-data/fonds-solidarite/fds-2021-07-22/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-07-22/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -2264,13 +2264,13 @@
         <v>10</v>
       </c>
       <c r="C57">
-        <v>34532</v>
+        <v>34531</v>
       </c>
       <c r="D57">
         <v>8560</v>
       </c>
       <c r="E57">
-        <v>69637199</v>
+        <v>69637112</v>
       </c>
       <c r="F57" t="s">
         <v>13</v>
